--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshinibonam/Documents/Projects/CS512-DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D7FC2-0006-3E47-834E-F1A1159AFBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="9048"/>
+    <workbookView xWindow="3720" yWindow="700" windowWidth="25280" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miKsNeHp+cbK+btwfL38ngG2XSTXg=="/>
     </ext>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>3NN</t>
   </si>
@@ -40,11 +49,14 @@
   <si>
     <t>10 k test</t>
   </si>
+  <si>
+    <t>k values</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -139,8 +151,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Correct Rate</a:t>
+              <a:t>3NN Average rate of</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> correctness</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -148,8 +165,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2315667762403486"/>
-          <c:y val="3.0395136778115502E-2"/>
+          <c:x val="0.25610662930937317"/>
+          <c:y val="4.5432873522388645E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -177,13 +194,35 @@
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>工作表1!$B$1:$K$1</c:f>
@@ -277,6 +316,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1848463385"/>
         <c:axId val="1430961972"/>
@@ -302,11 +342,18 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of 60K training image set</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -377,11 +424,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correctness</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -411,30 +460,20 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent3">
+          <a:lumMod val="40000"/>
+          <a:lumOff val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -466,7 +505,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Running</a:t>
+              <a:t>3NN Total Running</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -480,8 +519,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32583635551780094"/>
-          <c:y val="8.1053815641465868E-2"/>
+          <c:x val="0.31670424226144139"/>
+          <c:y val="4.1101842310453669E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -509,13 +548,35 @@
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>工作表1!$B$1:$K$1</c:f>
@@ -609,6 +670,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="195236360"/>
         <c:axId val="394752007"/>
@@ -626,19 +688,37 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage of 60K training image set</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -708,11 +788,18 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> taken (in ms)</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -742,33 +829,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17197037263545939"/>
-          <c:y val="0.21276595744680851"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -804,7 +864,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>K accuracy rate comparison</a:t>
+              <a:t>K-values</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ccuracy  </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -813,8 +881,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2315667762403486"/>
-          <c:y val="3.0395136778115502E-2"/>
+          <c:x val="0.31026161077274172"/>
+          <c:y val="3.3507601650663743E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -823,32 +891,72 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 k test</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>k-values VS. Accuracy rate</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:spPr>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="38100" cap="sq" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-630C-584E-99D7-3655F32ECC5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>工作表1!$B$8:$K$8</c:f>
@@ -942,6 +1050,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="493192287"/>
         <c:axId val="1295160552"/>
@@ -967,23 +1076,31 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k-values</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
               <a:defRPr sz="900" b="0" i="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1042,11 +1159,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy </a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1076,26 +1195,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1138,7 +1237,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Calculation</a:t>
+              <a:t>3NN Calculation</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1152,8 +1251,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32583635551780094"/>
-          <c:y val="8.1053815641465868E-2"/>
+          <c:x val="0.33574883483060275"/>
+          <c:y val="4.3309968858925026E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1181,13 +1280,35 @@
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>工作表1!$B$1:$K$1</c:f>
@@ -1281,6 +1402,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="195236360"/>
         <c:axId val="394752007"/>
@@ -1298,19 +1420,37 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage of 60K training image set</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -1380,11 +1520,18 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (in ms)</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1414,33 +1561,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17197037263545939"/>
-          <c:y val="0.21276595744680851"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1457,15 +1577,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4572000" cy="2533650"/>
+    <xdr:ext cx="6654800" cy="3797300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="167350078" name="Chart 1" title="图表"/>
+        <xdr:cNvPr id="167350078" name="Chart 1" title="图表">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E8FF909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1483,14 +1609,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>11642</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4591050" cy="2533650"/>
+    <xdr:ext cx="6678537" cy="3820583"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1167090511" name="Chart 2" title="图表"/>
+        <xdr:cNvPr id="1167090511" name="Chart 2" title="图表">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F639045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1507,15 +1639,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4972050" cy="2752725"/>
+    <xdr:ext cx="6616700" cy="4080298"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="882361310" name="Chart 4" title="图表"/>
+        <xdr:cNvPr id="882361310" name="Chart 4" title="图表">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DEC39734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1532,15 +1670,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1093047</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26246</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4591050" cy="2533650"/>
+    <xdr:ext cx="6753739" cy="4037754"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 2" title="图表"/>
+        <xdr:cNvPr id="8" name="Chart 2" title="图表">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1557,7 +1701,531 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A3AB2A-0758-2A46-AA32-F721A3AE11B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="10613571"/>
+          <a:ext cx="6690179" cy="3381829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3320</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>179801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E12FF7C-28F9-CA4D-A1B1-1E24D0A1FD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="10681607"/>
+          <a:ext cx="6667500" cy="3468194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714933</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281707</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2394</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD282C6-2BD9-CC4B-B97A-945448315A7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11721600" y="6828120"/>
+            <a:ext cx="667440" cy="700200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD282C6-2BD9-CC4B-B97A-945448315A7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11712677" y="6819628"/>
+              <a:ext cx="684929" cy="717537"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>852813</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>52444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46627</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40468</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983AB286-3D89-B54F-9973-D023919D0556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11859480" y="9648000"/>
+            <a:ext cx="294480" cy="364320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983AB286-3D89-B54F-9973-D023919D0556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11850840" y="9639000"/>
+              <a:ext cx="312120" cy="381960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>23600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="416781" cy="1352807"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0759D3B9-6048-7B46-A589-ADD0A496848C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="754241" y="12918495"/>
+          <a:ext cx="1352807" cy="416781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Time taken</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> (in ms)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>250927</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299269</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>51844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EC5648-732B-5C4B-A451-A6FE43E201F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12418346" y="14518919"/>
+          <a:ext cx="2260600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>250927</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299269</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>65743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018C07F6-EBD8-9540-90B4-C9579D070427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3569314" y="14341635"/>
+          <a:ext cx="2260600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114373</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>163242</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="416781" cy="1495987"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAC41C4-DDE1-9844-9487-02B6C2F0348A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9529931" y="13129727"/>
+          <a:ext cx="1495987" cy="416781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t>Rate of correctness</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-09-05T20:59:32.989"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">747 1941 24575,'-6'0'0,"-1"0"0,-5 0 0,-2 0 0,0 0 0,2 0 0,0-4 0,-2-1 0,0 0 0,-3-4 0,8 8 0,-3-6 0,0 2 0,3 0 0,-4-2 0,1 6 0,3-6 0,-3 6 0,-1-6 0,5 2 0,-5 0 0,1-2 0,3 2 0,-3 0 0,-1-2 0,5 3 0,-5-1 0,6-2 0,-1 6 0,1-6 0,-1 3 0,4-4 0,-3 4 0,3-3 0,-3 3 0,-1-3 0,4 0 0,-2 3 0,2-3 0,-4 3 0,1-3 0,0 3 0,3-3 0,-3 3 0,3 0 0,0-3 0,-3 6 0,7-5 0,-7 1 0,3 1 0,0-3 0,-3 3 0,3-3 0,0-1 0,-2 5 0,5-4 0,-6 3 0,3-4 0,-3 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,3 0 0,-3 2 0,3-1 0,0 1 0,-3-2 0,3-1 0,0 1 0,-3-1 0,3 0 0,0 1 0,-3-1 0,3 1 0,0-1 0,-3 1 0,3-1 0,0 0 0,-3-4 0,2 3 0,0-3 0,-2 4 0,7 0 0,-7 1 0,2-6 0,-3 4 0,-1-8 0,5 8 0,-4-3 0,8-1 0,-7 4 0,3-3 0,0-1 0,-3 4 0,6-8 0,-6 8 0,7-8 0,-7 8 0,6-9 0,-2 10 0,-1-10 0,3 4 0,-4 1 0,2 0 0,2 1 0,-2-2 0,3 0 0,-4-3 0,3 3 0,-3 0 0,4-3 0,0 3 0,-5-5 0,4 5 0,-3-3 0,4 3 0,0 0 0,-4-3 0,3 0 0,-3-3 0,4-2 0,0 4 0,0 4 0,0-4 0,0 10 0,0-10 0,0 9 0,0-8 0,0 8 0,0-4 0,0 1 0,0 3 0,0-3 0,0-1 0,0 4 0,0-3 0,0 4 0,0 1 0,0-9 0,0 6 0,0-6 0,0 4 0,0 3 0,0-4 0,0 1 0,0 3 0,0-4 0,0 1 0,0 3 0,0-8 0,0 8 0,4-9 0,-3 10 0,7-10 0,-7 9 0,7-3 0,-7-1 0,5 4 0,-2-11 0,4 10 0,0-11 0,-1 12 0,2-3 0,-1-1 0,0-1 0,1 1 0,0-5 0,-1 5 0,0-1 0,5-4 0,-3 5 0,7-2 0,-7-3 0,8 8 0,-8-8 0,3 9 0,0-5 0,-4 2 0,7-1 0,-7-1 0,6 7 0,-6 0 0,3 3 0,-4-4 0,-1 1 0,1-1 0,-1 0 0,0 4 0,1-2 0,-1 1 0,1 1 0,-1-3 0,0 4 0,0-2 0,0-1 0,1 5 0,-4-5 0,3 5 0,-3-6 0,3 3 0,0 0 0,1-3 0,-1 6 0,1-6 0,-1 3 0,5 0 0,-3 0 0,3 4 0,-4-3 0,-1 2 0,1-2 0,-1-1 0,0 4 0,6-4 0,-5 4 0,5 0 0,-3-3 0,-1 2 0,6-2 0,-6 3 0,3-4 0,-4 3 0,4-2 0,-3 0 0,3 2 0,-5-2 0,1 3 0,-1 0 0,5 0 0,-3 0 0,3 0 0,-4 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,4 0 0,0 0 0,1 0 0,-2 0 0,1 0 0,-3 0 0,3 0 0,0 0 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-3 0 0,3 0 0,-4 0 0,4 0 0,-4 0 0,5 0 0,-1 0 0,-3 0 0,8 0 0,-5 0 0,6 0 0,-1 4 0,-4-3 0,0 3 0,-1 0 0,-3-3 0,8 3 0,-9-1 0,10-2 0,-10 6 0,9-6 0,-8 5 0,3-5 0,1 7 0,-5-7 0,5 6 0,-1-6 0,-3 5 0,8-1 0,0 7 0,2-2 0,-2 2 0,0-3 0,-4 0 0,6 0 0,-1 0 0,1 0 0,-5 5 0,3-4 0,-2 3 0,-2-4 0,4 4 0,-8-4 0,3 3 0,1-4 0,-5 0 0,5 0 0,-1 5 0,-3-4 0,12 12 0,-7-10 0,4 5 0,-5-3 0,0-3 0,-3 7 0,2-7 0,1 7 0,-3-3 0,2 0 0,1 3 0,-4-8 0,4 8 0,-5-8 0,1 8 0,-2-8 0,2 3 0,-1 1 0,-1-5 0,1 5 0,0-2 0,-1-3 0,-3 8 0,3-8 0,-6 5 0,6-1 0,-2-3 0,-1 8 0,0-8 0,-1 3 0,-2 1 0,6 0 0,-6 1 0,7 3 0,-7-3 0,8 5 0,-8-1 0,3 1 0,0-1 0,-3 1 0,7 8 0,-7-6 0,7 5 0,-7 0 0,3-6 0,0 5 0,-3-6 0,3-1 0,-4 1 0,0-1 0,0-4 0,0 3 0,0-3 0,0 5 0,0-6 0,0 5 0,0-5 0,0 6 0,0-6 0,0 5 0,0-1 0,0-3 0,0 2 0,0-4 0,0-3 0,0 9 0,0-10 0,0 10 0,0-10 0,0 10 0,0-10 0,0 5 0,0-6 0,0 1 0,0 4 0,0-3 0,0 3 0,-3-4 0,2-1 0,-2 1 0,-1 3 0,-1 2 0,1-1 0,-3 0 0,6-4 0,-6-1 0,3 1 0,0 4 0,-3-3 0,6 3 0,-5-4 0,1-1 0,1 1 0,-3 4 0,6-3 0,-7 3 0,3 1 0,-2-5 0,2 5 0,-2-6 0,-1 4 0,-1 2 0,-2-1 0,3 1 0,4-6 0,-3 1 0,3-1 0,-4 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,4 1 0,-3-1 0,3-2 0,-3 1 0,-4-2 0,3 4 0,-3-1 0,3-3 0,1 3 0,-1-3 0,1 0 0,-1 3 0,1-3 0,-1 0 0,1 3 0,-1-3 0,1 0 0,-1 3 0,1-3 0,-1 0 0,1 3 0,-1-6 0,-3 5 0,3-5 0,-3 6 0,4-6 0,-1 5 0,1-5 0,0 2 0,-1 1 0,1-3 0,-1 2 0,1 0 0,-1-2 0,4 6 0,-3-6 0,3 2 0,-3-3 0,-1 3 0,1-2 0,-1 2 0,1-3 0,-1 4 0,1-3 0,-1 2 0,1-3 0,-1 0 0,1 3 0,-1-2 0,1 2 0,-1 0 0,1-2 0,0 2 0,-1 0 0,1-2 0,-1 2 0,1-3 0,0 3 0,-1-2 0,1 2 0,0-3 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,-4 0 0,0 0 0,-1 0 0,2 0 0,4 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 3 0,1-2 0,0 2 0,0-3 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,4 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-09-05T20:59:49.229"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">736 279 24575,'0'-7'0,"-3"1"0,2-2 0,-3 1 0,1-1 0,2 1 0,-2 0 0,0-1 0,2 1 0,-6 2 0,6-1 0,-5 2 0,5-3 0,-6 3 0,7-3 0,-4 3 0,1 0 0,2-2 0,-5 2 0,2-4 0,-3 2 0,0-2 0,0 2 0,0-2 0,0 2 0,0 2 0,3-3 0,-3 3 0,3 0 0,0-2 0,-2 5 0,1-6 0,-2 4 0,0-1 0,4-3 0,-4 7 0,3-4 0,0 1 0,-3 2 0,3-5 0,-3 5 0,0-6 0,0 6 0,0-5 0,-1 5 0,1-2 0,0 0 0,0 2 0,0-5 0,0 5 0,0-4 0,0 4 0,0-5 0,0 5 0,0-2 0,0 3 0,-1-3 0,2 2 0,-2-2 0,2 3 0,-2 0 0,2-3 0,-2 2 0,2-2 0,-1 3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 3 0,-1-2 0,0 5 0,1-3 0,-1 1 0,0-1 0,4 0 0,-4-2 0,3 5 0,-3-3 0,1 1 0,2 2 0,-2-5 0,2 5 0,-3-2 0,1 2 0,-1 1 0,1-4 0,2 3 0,-2-5 0,5 6 0,-5-7 0,2 7 0,0-4 0,-2 1 0,5 2 0,-2-3 0,0 1 0,2 3 0,-5-4 0,5 4 0,-5-4 0,5 3 0,-5-5 0,6 6 0,-3-3 0,3 2 0,-4 1 0,3 0 0,-5-3 0,5 2 0,-2-2 0,0 3 0,2 0 0,-2-1 0,0-2 0,2 2 0,-2-2 0,3 2 0,-4 1 0,4 0 0,-4 0 0,1 0 0,2 0 0,-2 0 0,0 0 0,2 1 0,-3-1 0,4 0 0,-3 1 0,2-1 0,-2 0 0,3 1 0,-3-1 0,2 0 0,-3 1 0,4-1 0,-3-3 0,2 3 0,-2-3 0,3 3 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-3-3 0,2 3 0,-2-3 0,3 3 0,0 0 0,0 0 0,0 1 0,0-2 0,0 2 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-1 0 0,2 0 0,0 0 0,-2 0 0,1 0 0,1 0 0,-2 0 0,5-1 0,-6 1 0,7 0 0,-7-1 0,4 2 0,-1-5 0,-2 4 0,5-3 0,-5 3 0,2 1 0,1-1 0,-4 0 0,7 0 0,-7 0 0,6 0 0,-5 1 0,6-1 0,-6 0 0,5 0 0,-5 0 0,5 0 0,-2 0 0,3-1 0,-1 1 0,1-4 0,-3 4 0,2-3 0,-2 3 0,3-1 0,-1 1 0,1-4 0,-1 3 0,0-5 0,-2 4 0,2-4 0,-2 2 0,0 0 0,1-2 0,-4 5 0,5-5 0,-2 2 0,0 0 0,2-3 0,-3 3 0,4 0 0,-1-2 0,-2 5 0,2-5 0,-2 5 0,3-6 0,-1 3 0,0-3 0,1 3 0,-1-2 0,0 1 0,-2 2 0,2-3 0,-3 2 0,4-3 0,0 0 0,-1 0 0,0 0 0,1 0 0,0 3 0,-1-2 0,1 2 0,0-3 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-2 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-2 0 0,2 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-3-3 0,2 2 0,-2-2 0,0-1 0,2 4 0,-2-4 0,0 1 0,3 2 0,-3-2 0,0-1 0,2 4 0,-2-4 0,4 1 0,-1-1 0,0 0 0,0 1 0,-3 0 0,3 2 0,-4-5 0,4 5 0,-3-5 0,2 6 0,-5-6 0,5 5 0,-5-5 0,5 5 0,-6-5 0,7 5 0,-6-5 0,5 6 0,-2-6 0,0 2 0,2 1 0,-5-3 0,5 2 0,-5-2 0,4-1 0,-4 1 0,4 0 0,-4-1 0,2 1 0,-3-1 0,3 3 0,-2-2 0,2 2 0,-3-3 0,3 0 0,-2 1 0,2-1 0,0 1 0,-3-1 0,6 1 0,-6-1 0,3 1 0,-3 0 0,0-1 0,3 4 0,-2-3 0,3 2 0,-4-2 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,2-1 0,-1 1 0,2 0 0,-3-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,2 1 0,-1 0 0,2 0 0,-3 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 3 0,3-2 0,-2 1 0,0 1 0,3-2 0,-3 1 0,3-2 0,0-2 0,-3 4 0,3-3 0,-3 3 0,0 1 0,3-2 0,-6 4 0,5-2 0,-1 3 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,22 +2425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0.1</v>
@@ -1806,7 +2474,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +2510,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +2546,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1914,7 +2582,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +2625,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <f t="shared" ref="B6:J6" si="1">C4-B4</f>
@@ -2000,7 +2668,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2036,8 +2704,10 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -2070,7 +2740,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2084,7 +2754,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2098,996 +2768,996 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
